--- a/Makespans.xlsx
+++ b/Makespans.xlsx
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>121.582</v>
+        <v>498.718</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>124.117</v>
+        <v>329.565</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>165.705</v>
+        <v>558.33</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>152.058</v>
+        <v>480.944</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>106.083</v>
+        <v>501.999</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>117.259</v>
+        <v>605.751</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>84.20699999999999</v>
+        <v>373.288</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>105.636</v>
+        <v>488.05</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>84.358</v>
+        <v>439.411</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100.563</v>
+        <v>504.372</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>90.08799999999999</v>
+        <v>513.337</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -512,7 +512,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>101.177</v>
+        <v>463.011</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -523,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>80.765</v>
+        <v>438.504</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>135.212</v>
+        <v>459.915</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -545,7 +545,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>165.31</v>
+        <v>406.786</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -556,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>99.545</v>
+        <v>378.813</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>116.67</v>
+        <v>521.018</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -578,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>105.547</v>
+        <v>489.442</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>121.601</v>
+        <v>426.145</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>109.083</v>
+        <v>581.878</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>130.719</v>
+        <v>509.871</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>190.666</v>
+        <v>533.568</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -633,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>58.306</v>
+        <v>508.801</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -644,7 +644,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>112.865</v>
+        <v>672.582</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>134.646</v>
+        <v>502.424</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -666,7 +666,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>82.212</v>
+        <v>395.836</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>184.516</v>
+        <v>486.707</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -688,7 +688,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>187.247</v>
+        <v>500.613</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>125.923</v>
+        <v>526.153</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -710,7 +710,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>77.096</v>
+        <v>514.472</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>130.692</v>
+        <v>464.324</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>59.097</v>
+        <v>540.864</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>126.973</v>
+        <v>404.406</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>248.867</v>
+        <v>406.402</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>132.412</v>
+        <v>477.792</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -776,7 +776,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>140.932</v>
+        <v>556.5890000000001</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -787,7 +787,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>89.827</v>
+        <v>423.009</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -798,7 +798,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>74.795</v>
+        <v>504.039</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>145.951</v>
+        <v>575.446</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -820,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>124.162</v>
+        <v>498.308</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -831,7 +831,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>169.143</v>
+        <v>562.495</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -842,7 +842,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>171.848</v>
+        <v>522.002</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -853,7 +853,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>149.178</v>
+        <v>512.9109999999999</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -864,7 +864,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>96.584</v>
+        <v>444.237</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>74.76600000000001</v>
+        <v>531.538</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>118.648</v>
+        <v>477.923</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -897,7 +897,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>83.764</v>
+        <v>331.163</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>144.624</v>
+        <v>595.35</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -919,7 +919,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>205.526</v>
+        <v>534.9059999999999</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -930,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>75.16500000000001</v>
+        <v>482.092</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -941,7 +941,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>191.87</v>
+        <v>469.012</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -952,7 +952,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>119.458</v>
+        <v>576.3049999999999</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>142.536</v>
+        <v>498.628</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -974,7 +974,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>136.134</v>
+        <v>403.971</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -985,7 +985,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>123.31</v>
+        <v>455.271</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -996,7 +996,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>174.137</v>
+        <v>433.335</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1007,7 +1007,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>80.876</v>
+        <v>470.922</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>168.963</v>
+        <v>439.668</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -1029,7 +1029,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>130.779</v>
+        <v>604.708</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1040,7 +1040,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>155.677</v>
+        <v>528.795</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1051,7 +1051,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>49.678</v>
+        <v>495.868</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>153.096</v>
+        <v>472.304</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1073,7 +1073,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>127.748</v>
+        <v>452.686</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>77.271</v>
+        <v>390.981</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1095,7 +1095,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>125.378</v>
+        <v>441.984</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1106,7 +1106,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>111.528</v>
+        <v>418.329</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1117,7 +1117,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>93.642</v>
+        <v>519.711</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1128,7 +1128,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>125.289</v>
+        <v>467.59</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1139,7 +1139,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>194.306</v>
+        <v>513.878</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>85.86</v>
+        <v>628.413</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -1161,7 +1161,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>165.53</v>
+        <v>496.557</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1172,7 +1172,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>122.539</v>
+        <v>348.267</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>199.625</v>
+        <v>432.423</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -1194,7 +1194,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>214.111</v>
+        <v>372.379</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1205,7 +1205,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>67.949</v>
+        <v>519.8200000000001</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -1216,7 +1216,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>135.195</v>
+        <v>489.562</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -1227,7 +1227,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>64.59099999999999</v>
+        <v>560.687</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>109.686</v>
+        <v>443.519</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -1249,7 +1249,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>171.434</v>
+        <v>410.515</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -1260,7 +1260,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>126.025</v>
+        <v>403.6</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -1271,7 +1271,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>133.452</v>
+        <v>409.741</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1282,7 +1282,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>153.04</v>
+        <v>612.12</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1293,7 +1293,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>112.122</v>
+        <v>512.3819999999999</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -1304,7 +1304,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>132.497</v>
+        <v>536.0170000000001</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>121.934</v>
+        <v>394.742</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -1326,7 +1326,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>140.129</v>
+        <v>434.768</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1337,7 +1337,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>151.883</v>
+        <v>406.377</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -1348,7 +1348,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>88.476</v>
+        <v>384.295</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1359,7 +1359,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>146.335</v>
+        <v>427.2</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>183.154</v>
+        <v>524.727</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -1381,7 +1381,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>96.55</v>
+        <v>451.195</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1392,7 +1392,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>89.97499999999999</v>
+        <v>422.912</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>126.875</v>
+        <v>488.552</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>63.506</v>
+        <v>441.809</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -1425,7 +1425,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>191.726</v>
+        <v>346.203</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -1436,7 +1436,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>124.78</v>
+        <v>315.511</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -1447,7 +1447,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>90.21599999999999</v>
+        <v>532.163</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>159.239</v>
+        <v>558.615</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -1469,7 +1469,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>97.682</v>
+        <v>524.5</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>121.534</v>
+        <v>455.058</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -1491,7 +1491,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>124.361</v>
+        <v>450.975</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -1502,7 +1502,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>62.707</v>
+        <v>453.654</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -1513,7 +1513,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>109.781</v>
+        <v>467.833</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -1524,7 +1524,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>176.892</v>
+        <v>510.95</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -1535,7 +1535,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>127.084</v>
+        <v>391.905</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -1546,7 +1546,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>125.428</v>
+        <v>476.19</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -1557,7 +1557,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>97.048</v>
+        <v>433.986</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -1568,7 +1568,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>118.198</v>
+        <v>472.064</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -1579,7 +1579,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>84.849</v>
+        <v>368.467</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -1590,7 +1590,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>98.50700000000001</v>
+        <v>429.7</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>117.392</v>
+        <v>455.174</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -1612,7 +1612,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>172.106</v>
+        <v>457.824</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -1623,7 +1623,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>62.376</v>
+        <v>402.771</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -1634,7 +1634,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>130.573</v>
+        <v>499.757</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>124.817</v>
+        <v>405.505</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -1656,7 +1656,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>116.515</v>
+        <v>551.394</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -1667,7 +1667,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>98.771</v>
+        <v>440.243</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -1678,7 +1678,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>176.45</v>
+        <v>523.728</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -1689,7 +1689,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>62.777</v>
+        <v>446.184</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -1700,7 +1700,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>149.787</v>
+        <v>447.301</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -1711,7 +1711,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>185.753</v>
+        <v>463.998</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -1722,7 +1722,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>134.766</v>
+        <v>470.477</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -1733,7 +1733,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>114.15</v>
+        <v>373.549</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -1744,7 +1744,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>54.794</v>
+        <v>462.824</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -1755,7 +1755,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>107.95</v>
+        <v>575.942</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -1766,7 +1766,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>63.061</v>
+        <v>516.729</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -1777,7 +1777,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>123.934</v>
+        <v>414.876</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -1788,7 +1788,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>159.446</v>
+        <v>447.198</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -1799,7 +1799,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>180.71</v>
+        <v>442.509</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -1810,7 +1810,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>103.898</v>
+        <v>437.988</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -1821,7 +1821,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>124.816</v>
+        <v>401.801</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -1832,7 +1832,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>127.927</v>
+        <v>497.184</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -1843,7 +1843,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>113.385</v>
+        <v>670.249</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -1854,7 +1854,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>160.186</v>
+        <v>463.189</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -1865,7 +1865,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>89.13800000000001</v>
+        <v>543.0170000000001</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -1876,7 +1876,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>148.88</v>
+        <v>514.303</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -1887,7 +1887,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>159.372</v>
+        <v>415.088</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -1898,7 +1898,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>101.99</v>
+        <v>458.2</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -1909,7 +1909,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>80.48399999999999</v>
+        <v>493.293</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -1920,7 +1920,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>118.59</v>
+        <v>386.071</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -1931,7 +1931,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>139.958</v>
+        <v>501.911</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -1942,7 +1942,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>133.122</v>
+        <v>470.467</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -1953,7 +1953,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>103.307</v>
+        <v>499.846</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -1964,7 +1964,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>144.89</v>
+        <v>466.857</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -1975,7 +1975,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>73.053</v>
+        <v>474.796</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -1986,7 +1986,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>123.69</v>
+        <v>498.987</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -1997,7 +1997,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>117.173</v>
+        <v>536.295</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -2008,7 +2008,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>141.697</v>
+        <v>590.082</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -2019,7 +2019,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>110.168</v>
+        <v>595.182</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -2030,7 +2030,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>153.616</v>
+        <v>470.091</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>154.989</v>
+        <v>421.922</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -2052,7 +2052,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>70.389</v>
+        <v>495.259</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -2063,7 +2063,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>102.672</v>
+        <v>363.248</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -2074,7 +2074,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>144.126</v>
+        <v>466.799</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
@@ -2085,7 +2085,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>183.63</v>
+        <v>459.114</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -2096,7 +2096,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>124.089</v>
+        <v>479.572</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
@@ -2107,7 +2107,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>145.961</v>
+        <v>464.479</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -2118,7 +2118,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>60.067</v>
+        <v>427.48</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -2129,7 +2129,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>126.131</v>
+        <v>480.225</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -2140,7 +2140,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>153.728</v>
+        <v>436.517</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -2151,7 +2151,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>128.02</v>
+        <v>458.663</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -2162,7 +2162,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>77.31999999999999</v>
+        <v>465.137</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -2173,7 +2173,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>109.943</v>
+        <v>713.6</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -2184,7 +2184,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>123.256</v>
+        <v>509.227</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -2195,7 +2195,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>94.15900000000001</v>
+        <v>413.237</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -2206,7 +2206,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>184.627</v>
+        <v>562.2670000000001</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -2217,7 +2217,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>147.957</v>
+        <v>454.445</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -2228,7 +2228,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>129.364</v>
+        <v>539.064</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -2239,7 +2239,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>203.606</v>
+        <v>537.294</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -2250,7 +2250,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>134.518</v>
+        <v>453.637</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>108.14</v>
+        <v>488.603</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -2272,7 +2272,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>88.821</v>
+        <v>444.477</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -2283,7 +2283,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>135.301</v>
+        <v>504.497</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -2294,7 +2294,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>100.176</v>
+        <v>432.854</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
@@ -2305,7 +2305,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>163.24</v>
+        <v>486.945</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -2316,7 +2316,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>181.227</v>
+        <v>390.487</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -2327,7 +2327,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>77.59</v>
+        <v>447.681</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -2338,7 +2338,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>117.05</v>
+        <v>455.226</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -2349,7 +2349,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>117.957</v>
+        <v>464.71</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -2360,7 +2360,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>86.245</v>
+        <v>550.462</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -2371,7 +2371,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>136.09</v>
+        <v>496.007</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -2382,7 +2382,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>139.874</v>
+        <v>460.413</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -2393,7 +2393,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>98.69</v>
+        <v>466.116</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -2404,7 +2404,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>120.823</v>
+        <v>365.92</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -2415,7 +2415,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>152.708</v>
+        <v>540.0410000000001</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -2426,7 +2426,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>128.724</v>
+        <v>475.571</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -2437,7 +2437,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>112.61</v>
+        <v>588.79</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -2448,7 +2448,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>193.766</v>
+        <v>519.489</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -2459,7 +2459,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>129.526</v>
+        <v>648.139</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -2470,7 +2470,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>156.948</v>
+        <v>524.91</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -2481,7 +2481,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>226.522</v>
+        <v>429.152</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
@@ -2492,7 +2492,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>201.118</v>
+        <v>569.347</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
@@ -2503,7 +2503,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>66.3</v>
+        <v>461.115</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -2514,7 +2514,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>196.657</v>
+        <v>519.5650000000001</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
@@ -2525,7 +2525,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>83.58</v>
+        <v>494.16</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -2536,7 +2536,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>141.596</v>
+        <v>410.759</v>
       </c>
       <c r="C197" t="s">
         <v>4</v>
@@ -2547,7 +2547,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>113.239</v>
+        <v>427.402</v>
       </c>
       <c r="C198" t="s">
         <v>4</v>
@@ -2558,7 +2558,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>84.349</v>
+        <v>534.867</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -2569,7 +2569,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>189.143</v>
+        <v>509.801</v>
       </c>
       <c r="C200" t="s">
         <v>4</v>
@@ -2580,7 +2580,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>69.429</v>
+        <v>472.011</v>
       </c>
       <c r="C201" t="s">
         <v>4</v>
@@ -2591,7 +2591,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>98.158</v>
+        <v>595.544</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -2602,7 +2602,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>119.684</v>
+        <v>655.425</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -2613,7 +2613,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>122.008</v>
+        <v>733.42</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -2624,7 +2624,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>113.744</v>
+        <v>604.521</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -2635,7 +2635,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>82.027</v>
+        <v>678.962</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -2646,7 +2646,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>168.776</v>
+        <v>452.675</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -2657,7 +2657,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>123.46</v>
+        <v>719.965</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -2668,7 +2668,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>125.979</v>
+        <v>479.985</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -2679,7 +2679,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>99.129</v>
+        <v>564.395</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -2690,7 +2690,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>128.927</v>
+        <v>567.427</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>94.464</v>
+        <v>467.824</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -2712,7 +2712,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>172.936</v>
+        <v>484.512</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -2723,7 +2723,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>190.936</v>
+        <v>482.612</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -2734,7 +2734,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>155.578</v>
+        <v>640.122</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -2745,7 +2745,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>74.042</v>
+        <v>528.074</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -2756,7 +2756,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>138.271</v>
+        <v>440.826</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -2767,7 +2767,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>110.367</v>
+        <v>435.967</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -2778,7 +2778,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>88.521</v>
+        <v>465.546</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -2789,7 +2789,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>67.999</v>
+        <v>668.898</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -2800,7 +2800,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>179.186</v>
+        <v>554.022</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -2811,7 +2811,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>128.002</v>
+        <v>739.471</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -2822,7 +2822,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>119.785</v>
+        <v>425.542</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -2833,7 +2833,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>167.654</v>
+        <v>515.352</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -2844,7 +2844,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>189.458</v>
+        <v>503.247</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -2855,7 +2855,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>207.579</v>
+        <v>618.654</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -2866,7 +2866,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>105.292</v>
+        <v>506.92</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -2877,7 +2877,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>113.837</v>
+        <v>555</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -2888,7 +2888,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>154.011</v>
+        <v>604.038</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -2899,7 +2899,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>111.472</v>
+        <v>559.2430000000001</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -2910,7 +2910,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>127.37</v>
+        <v>424.412</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -2921,7 +2921,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>130.677</v>
+        <v>535.205</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -2932,7 +2932,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>135.463</v>
+        <v>595.157</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -2943,7 +2943,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>150.132</v>
+        <v>522.542</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -2954,7 +2954,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>144.635</v>
+        <v>493.968</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -2965,7 +2965,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>162.523</v>
+        <v>621.66</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -2976,7 +2976,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>92.33499999999999</v>
+        <v>388.161</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -2987,7 +2987,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>99.051</v>
+        <v>486.444</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -2998,7 +2998,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>102.736</v>
+        <v>632.306</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -3009,7 +3009,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>142.834</v>
+        <v>472.468</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -3020,7 +3020,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>72.73099999999999</v>
+        <v>644.154</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -3031,7 +3031,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>113.606</v>
+        <v>509.29</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -3042,7 +3042,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>115.432</v>
+        <v>509.115</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -3053,7 +3053,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>143.489</v>
+        <v>558.718</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -3064,7 +3064,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>113.484</v>
+        <v>602.985</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -3075,7 +3075,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>92.56699999999999</v>
+        <v>542.984</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -3086,7 +3086,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>122.193</v>
+        <v>569.779</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -3097,7 +3097,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>109.192</v>
+        <v>439.711</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -3108,7 +3108,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>219.573</v>
+        <v>635.0650000000001</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -3119,7 +3119,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>132.413</v>
+        <v>643.668</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -3130,7 +3130,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>168.27</v>
+        <v>618.982</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -3141,7 +3141,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>141.766</v>
+        <v>576.1369999999999</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -3152,7 +3152,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>149.792</v>
+        <v>563.009</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -3163,7 +3163,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>136.358</v>
+        <v>516.682</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -3174,7 +3174,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>185</v>
+        <v>568.972</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -3185,7 +3185,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>196.88</v>
+        <v>416.355</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -3196,7 +3196,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>166.064</v>
+        <v>499.995</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -3207,7 +3207,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>103.375</v>
+        <v>428.939</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -3218,7 +3218,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>80.833</v>
+        <v>483.54</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -3229,7 +3229,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>111.903</v>
+        <v>456.909</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -3240,7 +3240,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>140.666</v>
+        <v>514.401</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -3251,7 +3251,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>157.342</v>
+        <v>495.534</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -3262,7 +3262,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>73.90600000000001</v>
+        <v>558.96</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>60.608</v>
+        <v>679.12</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -3284,7 +3284,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>174.501</v>
+        <v>463.5</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -3295,7 +3295,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>59.235</v>
+        <v>528.8630000000001</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -3306,7 +3306,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>114.868</v>
+        <v>659.274</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -3317,7 +3317,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>118.645</v>
+        <v>467.585</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -3328,7 +3328,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>165.569</v>
+        <v>531.961</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -3339,7 +3339,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>108.593</v>
+        <v>597.354</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -3350,7 +3350,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>113.41</v>
+        <v>556.39</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -3361,7 +3361,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>62.753</v>
+        <v>525.266</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -3372,7 +3372,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>183.61</v>
+        <v>573.865</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -3383,7 +3383,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>183.005</v>
+        <v>592.812</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -3394,7 +3394,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>101.008</v>
+        <v>675.4400000000001</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -3405,7 +3405,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>87.377</v>
+        <v>524.123</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -3416,7 +3416,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>82.467</v>
+        <v>547.274</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -3427,7 +3427,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>79.77200000000001</v>
+        <v>628.066</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -3438,7 +3438,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>127.863</v>
+        <v>583.5890000000001</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -3449,7 +3449,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>99.872</v>
+        <v>464.408</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -3460,7 +3460,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>147.223</v>
+        <v>559.385</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -3471,7 +3471,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>142.808</v>
+        <v>626.222</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -3482,7 +3482,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>59.708</v>
+        <v>512.6079999999999</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -3493,7 +3493,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>119.182</v>
+        <v>440.872</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -3504,7 +3504,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>84.315</v>
+        <v>539.981</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -3515,7 +3515,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>112.745</v>
+        <v>382.725</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -3526,7 +3526,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>104.547</v>
+        <v>558.689</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -3537,7 +3537,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>113.114</v>
+        <v>527.273</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -3548,7 +3548,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>110.62</v>
+        <v>541.929</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -3559,7 +3559,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>129.136</v>
+        <v>494.711</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -3570,7 +3570,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>101.267</v>
+        <v>486.41</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -3581,7 +3581,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>130.355</v>
+        <v>547.207</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -3592,7 +3592,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>168.138</v>
+        <v>530.65</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>158.157</v>
+        <v>690.662</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -3614,7 +3614,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>149.046</v>
+        <v>587.659</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -3625,7 +3625,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>145.642</v>
+        <v>482.514</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -3636,7 +3636,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>120.996</v>
+        <v>652.732</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -3647,7 +3647,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>126.366</v>
+        <v>415.836</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -3658,7 +3658,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>59.827</v>
+        <v>547.058</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -3669,7 +3669,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>170.574</v>
+        <v>588.788</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -3680,7 +3680,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>144.816</v>
+        <v>522.034</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -3691,7 +3691,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>146.513</v>
+        <v>755.893</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
@@ -3702,7 +3702,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>169.589</v>
+        <v>769.285</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
@@ -3713,7 +3713,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>166.363</v>
+        <v>829.731</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
@@ -3724,7 +3724,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>245.086</v>
+        <v>795.16</v>
       </c>
       <c r="C305" t="s">
         <v>6</v>
@@ -3735,7 +3735,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>121.701</v>
+        <v>748.827</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
@@ -3746,7 +3746,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>127.099</v>
+        <v>829.742</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
@@ -3757,7 +3757,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>91.538</v>
+        <v>816.654</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
@@ -3768,7 +3768,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>113.544</v>
+        <v>747.675</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
@@ -3779,7 +3779,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>182.303</v>
+        <v>689.468</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
@@ -3790,7 +3790,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>148.803</v>
+        <v>616.973</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -3801,7 +3801,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>250.957</v>
+        <v>875.465</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -3812,7 +3812,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>206.367</v>
+        <v>664.17</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
@@ -3823,7 +3823,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>195.2</v>
+        <v>934.4829999999999</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
@@ -3834,7 +3834,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>139.975</v>
+        <v>742.64</v>
       </c>
       <c r="C315" t="s">
         <v>6</v>
@@ -3845,7 +3845,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>150.301</v>
+        <v>801.136</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -3856,7 +3856,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>211.026</v>
+        <v>972.559</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
@@ -3867,7 +3867,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>120.052</v>
+        <v>931.8099999999999</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
@@ -3878,7 +3878,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>178.87</v>
+        <v>886.3920000000001</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
@@ -3889,7 +3889,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>107.679</v>
+        <v>756.545</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -3900,7 +3900,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>175.512</v>
+        <v>993.644</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
@@ -3911,7 +3911,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>204.466</v>
+        <v>738.208</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
@@ -3922,7 +3922,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>203.531</v>
+        <v>766.1849999999999</v>
       </c>
       <c r="C323" t="s">
         <v>6</v>
@@ -3933,7 +3933,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>185.305</v>
+        <v>688.366</v>
       </c>
       <c r="C324" t="s">
         <v>6</v>
@@ -3944,7 +3944,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>277.488</v>
+        <v>544.428</v>
       </c>
       <c r="C325" t="s">
         <v>6</v>
@@ -3955,7 +3955,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>133.145</v>
+        <v>671.723</v>
       </c>
       <c r="C326" t="s">
         <v>6</v>
@@ -3966,7 +3966,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>159.848</v>
+        <v>699.324</v>
       </c>
       <c r="C327" t="s">
         <v>6</v>
@@ -3977,7 +3977,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>150.252</v>
+        <v>966.491</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -3988,7 +3988,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>127.552</v>
+        <v>665.425</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
@@ -3999,7 +3999,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>212.812</v>
+        <v>628.617</v>
       </c>
       <c r="C330" t="s">
         <v>6</v>
@@ -4010,7 +4010,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>112.847</v>
+        <v>803.827</v>
       </c>
       <c r="C331" t="s">
         <v>6</v>
@@ -4021,7 +4021,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>139.066</v>
+        <v>807.5839999999999</v>
       </c>
       <c r="C332" t="s">
         <v>6</v>
@@ -4032,7 +4032,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>149.012</v>
+        <v>867.547</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
@@ -4043,7 +4043,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>185.161</v>
+        <v>875.0549999999999</v>
       </c>
       <c r="C334" t="s">
         <v>6</v>
@@ -4054,7 +4054,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>137.863</v>
+        <v>994.049</v>
       </c>
       <c r="C335" t="s">
         <v>6</v>
@@ -4065,7 +4065,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>195.68</v>
+        <v>799.586</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
@@ -4076,7 +4076,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>193.562</v>
+        <v>678.194</v>
       </c>
       <c r="C337" t="s">
         <v>6</v>
@@ -4087,7 +4087,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>121.737</v>
+        <v>776.361</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
@@ -4098,7 +4098,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>108.134</v>
+        <v>660.823</v>
       </c>
       <c r="C339" t="s">
         <v>6</v>
@@ -4109,7 +4109,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>197.468</v>
+        <v>777.117</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
@@ -4120,7 +4120,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>142.35</v>
+        <v>769.778</v>
       </c>
       <c r="C341" t="s">
         <v>6</v>
@@ -4131,7 +4131,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>264.08</v>
+        <v>915.54</v>
       </c>
       <c r="C342" t="s">
         <v>6</v>
@@ -4142,7 +4142,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>119.442</v>
+        <v>675.3049999999999</v>
       </c>
       <c r="C343" t="s">
         <v>6</v>
@@ -4153,7 +4153,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>172.144</v>
+        <v>919.928</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
@@ -4164,7 +4164,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>114.91</v>
+        <v>717.22</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
@@ -4175,7 +4175,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>159.706</v>
+        <v>774.456</v>
       </c>
       <c r="C346" t="s">
         <v>6</v>
@@ -4186,7 +4186,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>163.194</v>
+        <v>727.995</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
@@ -4197,7 +4197,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>197.584</v>
+        <v>684.043</v>
       </c>
       <c r="C348" t="s">
         <v>6</v>
@@ -4208,7 +4208,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>137.303</v>
+        <v>635.322</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
@@ -4219,7 +4219,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>215.141</v>
+        <v>642.1180000000001</v>
       </c>
       <c r="C350" t="s">
         <v>6</v>
@@ -4230,7 +4230,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>188.313</v>
+        <v>586.659</v>
       </c>
       <c r="C351" t="s">
         <v>6</v>
@@ -4241,7 +4241,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>97.967</v>
+        <v>742.121</v>
       </c>
       <c r="C352" t="s">
         <v>6</v>
@@ -4252,7 +4252,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>106.653</v>
+        <v>519.853</v>
       </c>
       <c r="C353" t="s">
         <v>6</v>
@@ -4263,7 +4263,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>117.295</v>
+        <v>864.082</v>
       </c>
       <c r="C354" t="s">
         <v>6</v>
@@ -4274,7 +4274,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>150.292</v>
+        <v>736.351</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
@@ -4285,7 +4285,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>299.826</v>
+        <v>914.869</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -4296,7 +4296,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>176.485</v>
+        <v>951.495</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -4307,7 +4307,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>189.142</v>
+        <v>782.687</v>
       </c>
       <c r="C358" t="s">
         <v>6</v>
@@ -4318,7 +4318,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>174.141</v>
+        <v>777.104</v>
       </c>
       <c r="C359" t="s">
         <v>6</v>
@@ -4329,7 +4329,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>166.996</v>
+        <v>744.144</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -4340,7 +4340,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>90.70399999999999</v>
+        <v>909.967</v>
       </c>
       <c r="C361" t="s">
         <v>6</v>
@@ -4351,7 +4351,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>152.064</v>
+        <v>699.16</v>
       </c>
       <c r="C362" t="s">
         <v>6</v>
@@ -4362,7 +4362,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>196.691</v>
+        <v>693.703</v>
       </c>
       <c r="C363" t="s">
         <v>6</v>
@@ -4373,7 +4373,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>62.816</v>
+        <v>758.621</v>
       </c>
       <c r="C364" t="s">
         <v>6</v>
@@ -4384,7 +4384,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>171.81</v>
+        <v>803.141</v>
       </c>
       <c r="C365" t="s">
         <v>6</v>
@@ -4395,7 +4395,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>144.113</v>
+        <v>822.567</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
@@ -4406,7 +4406,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>211.99</v>
+        <v>629.581</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
@@ -4417,7 +4417,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>317.856</v>
+        <v>723.324</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -4428,7 +4428,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>150.247</v>
+        <v>848.253</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
@@ -4439,7 +4439,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>131.064</v>
+        <v>662.039</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -4450,7 +4450,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>252.651</v>
+        <v>659.133</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -4461,7 +4461,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>186.918</v>
+        <v>583.231</v>
       </c>
       <c r="C372" t="s">
         <v>6</v>
@@ -4472,7 +4472,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>236.778</v>
+        <v>1073.137</v>
       </c>
       <c r="C373" t="s">
         <v>6</v>
@@ -4483,7 +4483,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>195.002</v>
+        <v>714.708</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -4494,7 +4494,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>195.404</v>
+        <v>745.847</v>
       </c>
       <c r="C375" t="s">
         <v>6</v>
@@ -4505,7 +4505,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>135.048</v>
+        <v>735.39</v>
       </c>
       <c r="C376" t="s">
         <v>6</v>
@@ -4516,7 +4516,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>233.77</v>
+        <v>629.577</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -4527,7 +4527,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>245.927</v>
+        <v>791.755</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -4538,7 +4538,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>239.202</v>
+        <v>710.3200000000001</v>
       </c>
       <c r="C379" t="s">
         <v>6</v>
@@ -4549,7 +4549,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>258.032</v>
+        <v>741.433</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -4560,7 +4560,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>229.164</v>
+        <v>795.4299999999999</v>
       </c>
       <c r="C381" t="s">
         <v>6</v>
@@ -4571,7 +4571,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>188.419</v>
+        <v>1090.456</v>
       </c>
       <c r="C382" t="s">
         <v>6</v>
@@ -4582,7 +4582,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>139.465</v>
+        <v>642.004</v>
       </c>
       <c r="C383" t="s">
         <v>6</v>
@@ -4593,7 +4593,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>176.325</v>
+        <v>465.422</v>
       </c>
       <c r="C384" t="s">
         <v>6</v>
@@ -4604,7 +4604,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>211.518</v>
+        <v>608.026</v>
       </c>
       <c r="C385" t="s">
         <v>6</v>
@@ -4615,7 +4615,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>130.496</v>
+        <v>570.872</v>
       </c>
       <c r="C386" t="s">
         <v>6</v>
@@ -4626,7 +4626,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>91.018</v>
+        <v>494.602</v>
       </c>
       <c r="C387" t="s">
         <v>6</v>
@@ -4637,7 +4637,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>121.412</v>
+        <v>798.662</v>
       </c>
       <c r="C388" t="s">
         <v>6</v>
@@ -4648,7 +4648,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>159.333</v>
+        <v>795.987</v>
       </c>
       <c r="C389" t="s">
         <v>6</v>
@@ -4659,7 +4659,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>231.633</v>
+        <v>677.524</v>
       </c>
       <c r="C390" t="s">
         <v>6</v>
@@ -4670,7 +4670,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>87.253</v>
+        <v>624.9299999999999</v>
       </c>
       <c r="C391" t="s">
         <v>6</v>
@@ -4681,7 +4681,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>241.532</v>
+        <v>782.659</v>
       </c>
       <c r="C392" t="s">
         <v>6</v>
@@ -4692,7 +4692,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>157.697</v>
+        <v>809.1660000000001</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
@@ -4703,7 +4703,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>189.975</v>
+        <v>822.505</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
@@ -4714,7 +4714,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>109.219</v>
+        <v>583.271</v>
       </c>
       <c r="C395" t="s">
         <v>6</v>
@@ -4725,7 +4725,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>203.261</v>
+        <v>665.573</v>
       </c>
       <c r="C396" t="s">
         <v>6</v>
@@ -4736,7 +4736,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>123.874</v>
+        <v>597.0599999999999</v>
       </c>
       <c r="C397" t="s">
         <v>6</v>
@@ -4747,7 +4747,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>169.868</v>
+        <v>799.712</v>
       </c>
       <c r="C398" t="s">
         <v>6</v>
@@ -4758,7 +4758,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>198.293</v>
+        <v>733.9299999999999</v>
       </c>
       <c r="C399" t="s">
         <v>6</v>
@@ -4769,7 +4769,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>234.124</v>
+        <v>920.8579999999999</v>
       </c>
       <c r="C400" t="s">
         <v>6</v>
@@ -4780,7 +4780,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>100.73</v>
+        <v>687.119</v>
       </c>
       <c r="C401" t="s">
         <v>6</v>
